--- a/canada/数据表格.xlsx
+++ b/canada/数据表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="候选列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>编号</t>
   </si>
@@ -24,13 +24,49 @@
     <t>名称</t>
   </si>
   <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>建议大区</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>建议</t>
+  </si>
+  <si>
     <t>新西兰</t>
   </si>
   <si>
+    <t>温带海洋性</t>
+  </si>
+  <si>
+    <t>北岛</t>
+  </si>
+  <si>
     <t>澳大利亚</t>
   </si>
   <si>
+    <t>缺水，不建议</t>
+  </si>
+  <si>
     <t>加拿大</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>巴林</t>
   </si>
   <si>
     <t>国家</t>
@@ -89,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +142,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +176,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,22 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,37 +199,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -232,6 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,14 +270,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +483,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,17 +525,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,52 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,148 +588,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,35 +1085,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1113,36 +1190,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1234,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1174,36 +1251,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/canada/数据表格.xlsx
+++ b/canada/数据表格.xlsx
@@ -125,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -140,50 +140,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +217,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,17 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,40 +261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,9 +488,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +508,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,49 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,8 +569,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
